--- a/元藤_仕様書.xlsx
+++ b/元藤_仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\teamproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\teampro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1086,7 +1086,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1102,6 +1102,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1125,31 +1146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1161,13 +1164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4505,16 +4505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4523,7 +4523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="9515475"/>
+          <a:off x="9296400" y="10991850"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4561,6 +4561,404 @@
               </a:solidFill>
             </a:rPr>
             <a:t>ユニットの行動終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="9505949"/>
+          <a:ext cx="1752600" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃する対処があるか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="10982325"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃をする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="下矢印 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019926" y="10201274"/>
+          <a:ext cx="333374" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="11049000"/>
+          <a:ext cx="1219200" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="右矢印 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="9696450"/>
+          <a:ext cx="876300" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953499" y="9705975"/>
+          <a:ext cx="1924051" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>があるか確認」に戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4872,7 +5270,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
@@ -4881,11 +5279,11 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -4896,12 +5294,12 @@
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="10"/>
@@ -4918,10 +5316,10 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="15" t="s">
         <v>49</v>
       </c>
       <c r="K7" s="10"/>
@@ -4929,85 +5327,85 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
@@ -5020,7 +5418,7 @@
     </row>
     <row r="18" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10"/>
@@ -5034,11 +5432,11 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
@@ -5107,11 +5505,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
@@ -5174,7 +5572,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="10"/>
@@ -5188,69 +5586,63 @@
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J5:M6"/>
-    <mergeCell ref="J7:M17"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="B7:D17"/>
     <mergeCell ref="B35:E36"/>
     <mergeCell ref="B43:E44"/>
     <mergeCell ref="B21:D21"/>
@@ -5258,6 +5650,12 @@
     <mergeCell ref="B37:E38"/>
     <mergeCell ref="B39:E40"/>
     <mergeCell ref="B41:E42"/>
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="J7:M17"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B7:D17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5282,7 +5680,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="10"/>
@@ -5291,11 +5689,11 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -5306,12 +5704,12 @@
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="10"/>
@@ -5328,10 +5726,10 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="15" t="s">
         <v>49</v>
       </c>
       <c r="K7" s="10"/>
@@ -5339,85 +5737,85 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
@@ -5430,7 +5828,7 @@
     </row>
     <row r="18" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10"/>
@@ -5444,11 +5842,11 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
@@ -5517,11 +5915,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
@@ -5580,7 +5978,7 @@
     </row>
     <row r="34" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="10"/>
@@ -5594,54 +5992,49 @@
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J5:M6"/>
-    <mergeCell ref="J7:M17"/>
-    <mergeCell ref="B39:E40"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B41:E42"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="B5:D6"/>
@@ -5649,6 +6042,11 @@
     <mergeCell ref="B19:E20"/>
     <mergeCell ref="B35:E36"/>
     <mergeCell ref="B37:E38"/>
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="J7:M17"/>
+    <mergeCell ref="B39:E40"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5672,7 +6070,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="10"/>
@@ -5681,11 +6079,11 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -5696,7 +6094,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10"/>
@@ -5708,54 +6106,54 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
@@ -5764,7 +6162,7 @@
     </row>
     <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10"/>
@@ -5772,9 +6170,9 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
@@ -5845,7 +6243,7 @@
     </row>
     <row r="28" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="10"/>
@@ -5859,46 +6257,46 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5929,7 +6327,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="10"/>
@@ -5940,13 +6338,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -5959,7 +6357,7 @@
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="10"/>
@@ -5974,7 +6372,7 @@
     </row>
     <row r="19" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="10"/>
@@ -5986,7 +6384,7 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="10"/>
@@ -6005,7 +6403,7 @@
     </row>
     <row r="50" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="10"/>
@@ -6024,16 +6422,16 @@
     </row>
     <row r="80" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
     </row>
     <row r="82" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="37" t="s">
@@ -6104,7 +6502,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="10"/>
@@ -6115,13 +6513,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -6172,7 +6570,7 @@
       <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -6181,7 +6579,7 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="J7" s="23"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
@@ -6191,7 +6589,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="23"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="11"/>
@@ -6202,196 +6600,196 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="18"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="26"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="26"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="18"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="26"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="26"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="18"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
@@ -6443,7 +6841,7 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="23"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
@@ -6452,7 +6850,7 @@
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
@@ -6463,132 +6861,132 @@
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="26"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="26"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="12"/>
@@ -6632,7 +7030,7 @@
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B35" s="23"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
@@ -6641,7 +7039,7 @@
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="11"/>
@@ -6652,132 +7050,132 @@
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="26"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="26"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="26"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="18"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="26"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="18"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="26"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="18"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="26"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="18"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="26"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="26"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="12"/>
@@ -6797,15 +7195,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="J35:M44"/>
-    <mergeCell ref="N35:P44"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="B21:E30"/>
-    <mergeCell ref="F21:H30"/>
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="B35:E44"/>
-    <mergeCell ref="F35:H44"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="V7:X16"/>
     <mergeCell ref="J19:M20"/>
@@ -6819,6 +7208,15 @@
     <mergeCell ref="N7:P16"/>
     <mergeCell ref="R5:U6"/>
     <mergeCell ref="R7:U16"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="J35:M44"/>
+    <mergeCell ref="N35:P44"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B21:E30"/>
+    <mergeCell ref="F21:H30"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="B35:E44"/>
+    <mergeCell ref="F35:H44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6832,13 +7230,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="10"/>
@@ -6849,13 +7247,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>

--- a/元藤_仕様書.xlsx
+++ b/元藤_仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\teampro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\teamproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1086,7 +1086,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1102,27 +1102,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1146,13 +1125,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1164,10 +1161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2592,16 +2592,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2610,7 +2610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3562350" y="1228725"/>
+          <a:off x="7620000" y="962025"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2656,16 +2656,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2674,7 +2674,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276726" y="1657350"/>
+          <a:off x="8334376" y="1390650"/>
           <a:ext cx="285750" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2710,16 +2710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2728,7 +2728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3533775" y="2190750"/>
+          <a:off x="7591425" y="1924050"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2774,16 +2774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2792,7 +2792,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229101" y="2619374"/>
+          <a:off x="8286751" y="2352674"/>
           <a:ext cx="333374" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2831,16 +2831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2849,7 +2849,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="7248525"/>
+          <a:off x="7505700" y="6981825"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2895,16 +2895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2913,7 +2913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="2209800"/>
+          <a:off x="10248900" y="1943100"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2959,16 +2959,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2977,7 +2977,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="2247900"/>
+          <a:off x="9353550" y="1981200"/>
           <a:ext cx="876300" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3017,16 +3017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400053</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342903</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323852</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266702</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3035,7 +3035,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="5610227" y="638174"/>
+          <a:off x="9667877" y="371474"/>
           <a:ext cx="476251" cy="2666999"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
@@ -3075,16 +3075,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>238123</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9528</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638178</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3093,7 +3093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1676400" y="7391398"/>
+          <a:off x="5734050" y="7124698"/>
           <a:ext cx="1762128" cy="914402"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
@@ -3133,16 +3133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>209547</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3151,7 +3151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5200649" y="7362822"/>
+          <a:off x="9258299" y="7096122"/>
           <a:ext cx="2171701" cy="990601"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
@@ -3191,16 +3191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3209,7 +3209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4162426" y="7667624"/>
+          <a:off x="8220076" y="7400924"/>
           <a:ext cx="314324" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -3245,16 +3245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3263,7 +3263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="8334375"/>
+          <a:off x="5010150" y="8067675"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3309,16 +3309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3327,7 +3327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6257925" y="8362950"/>
+          <a:off x="10315575" y="8096250"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3373,16 +3373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3391,7 +3391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476625" y="8362950"/>
+          <a:off x="7534275" y="8096250"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3437,16 +3437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3455,7 +3455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="3419475"/>
+          <a:off x="7562850" y="3152775"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3509,16 +3509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3527,8 +3527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238626" y="3838573"/>
-          <a:ext cx="333374" cy="3409951"/>
+          <a:off x="8296276" y="3571873"/>
+          <a:ext cx="333374" cy="1304927"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3566,16 +3566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3584,7 +3584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5267325" y="3476625"/>
+          <a:off x="9324975" y="3209925"/>
           <a:ext cx="876300" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3624,16 +3624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3642,7 +3642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143624" y="3305174"/>
+          <a:off x="10201274" y="3038474"/>
           <a:ext cx="1838325" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3688,16 +3688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3706,7 +3706,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7991475" y="3457575"/>
+          <a:off x="12049125" y="3190875"/>
           <a:ext cx="876300" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3746,16 +3746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3764,7 +3764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934201" y="3962399"/>
+          <a:off x="10991851" y="3695699"/>
           <a:ext cx="333374" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -3803,16 +3803,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3821,7 +3821,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="4743450"/>
+          <a:off x="10248900" y="4476750"/>
           <a:ext cx="1809750" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3883,16 +3883,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3901,7 +3901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8886825" y="3457575"/>
+          <a:off x="12944475" y="3190875"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3952,16 +3952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3970,7 +3970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934201" y="5372099"/>
+          <a:off x="10991851" y="5105399"/>
           <a:ext cx="333374" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -4009,16 +4009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4027,7 +4027,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="4895850"/>
+          <a:off x="12068175" y="4629150"/>
           <a:ext cx="876300" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4067,16 +4067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4085,7 +4085,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8905875" y="4857750"/>
+          <a:off x="12963525" y="4591050"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4136,16 +4136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4154,7 +4154,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="6134100"/>
+          <a:off x="10306050" y="5867400"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4205,16 +4205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390527</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>238123</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4223,7 +4223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7991477" y="5314950"/>
+          <a:off x="12049127" y="5048250"/>
           <a:ext cx="1990723" cy="1123948"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
@@ -4263,16 +4263,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4281,7 +4281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666876" y="8762999"/>
+          <a:off x="5724526" y="8496299"/>
           <a:ext cx="314324" cy="771526"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -4317,16 +4317,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4335,7 +4335,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181476" y="8772524"/>
+          <a:off x="8239126" y="8505824"/>
           <a:ext cx="314324" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -4371,16 +4371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4389,7 +4389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077076" y="8801099"/>
+          <a:off x="11134726" y="8534399"/>
           <a:ext cx="314324" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -4425,16 +4425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4443,7 +4443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123949" y="9534525"/>
+          <a:off x="5181599" y="9267825"/>
           <a:ext cx="3657601" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4505,16 +4505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4523,7 +4523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9296400" y="10991850"/>
+          <a:off x="13354050" y="10725150"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4569,16 +4569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4587,7 +4587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="9505949"/>
+          <a:off x="10344150" y="9239249"/>
           <a:ext cx="1752600" cy="685801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4649,16 +4649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4667,7 +4667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="10982325"/>
+          <a:off x="10325100" y="10715625"/>
           <a:ext cx="1752600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4718,16 +4718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4736,7 +4736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019926" y="10201274"/>
+          <a:off x="11077576" y="9934574"/>
           <a:ext cx="333374" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -4775,16 +4775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4793,7 +4793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="11049000"/>
+          <a:off x="12068175" y="10782300"/>
           <a:ext cx="1219200" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4829,16 +4829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4847,7 +4847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048625" y="9696450"/>
+          <a:off x="12106275" y="9429750"/>
           <a:ext cx="876300" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4887,16 +4887,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4905,7 +4905,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953499" y="9705975"/>
+          <a:off x="13011149" y="9439275"/>
           <a:ext cx="1924051" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4960,6 +4960,571 @@
             </a:rPr>
             <a:t>があるか確認」に戻る</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="4905374"/>
+          <a:ext cx="1752600" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットを行動させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="下矢印 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296276" y="5591173"/>
+          <a:ext cx="333374" cy="1362077"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762499" y="5153025"/>
+          <a:ext cx="2714625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="5086350"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の行動を選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="下矢印 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752851" y="5505450"/>
+          <a:ext cx="285750" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="6315075"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ターン終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="下矢印 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3752851" y="4286250"/>
+          <a:ext cx="285750" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="3848100"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットを召喚</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304798</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="屈折矢印 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5372100" y="1647823"/>
+          <a:ext cx="552448" cy="3829051"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19657"/>
+            <a:gd name="adj2" fmla="val 26520"/>
+            <a:gd name="adj3" fmla="val 47129"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5270,7 +5835,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
@@ -5279,11 +5844,11 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -5294,12 +5859,12 @@
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="22" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="10"/>
@@ -5316,10 +5881,10 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="K7" s="10"/>
@@ -5327,85 +5892,85 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
@@ -5418,7 +5983,7 @@
     </row>
     <row r="18" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10"/>
@@ -5432,11 +5997,11 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
@@ -5505,11 +6070,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
@@ -5572,7 +6137,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="10"/>
@@ -5586,63 +6151,69 @@
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="J7:M17"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B7:D17"/>
     <mergeCell ref="B35:E36"/>
     <mergeCell ref="B43:E44"/>
     <mergeCell ref="B21:D21"/>
@@ -5650,12 +6221,6 @@
     <mergeCell ref="B37:E38"/>
     <mergeCell ref="B39:E40"/>
     <mergeCell ref="B41:E42"/>
-    <mergeCell ref="J5:M6"/>
-    <mergeCell ref="J7:M17"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="B7:D17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5680,7 +6245,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="10"/>
@@ -5689,11 +6254,11 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -5704,12 +6269,12 @@
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="22" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="10"/>
@@ -5726,10 +6291,10 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="K7" s="10"/>
@@ -5737,85 +6302,85 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
@@ -5828,7 +6393,7 @@
     </row>
     <row r="18" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10"/>
@@ -5842,11 +6407,11 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
@@ -5915,11 +6480,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
@@ -5978,7 +6543,7 @@
     </row>
     <row r="34" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="10"/>
@@ -5992,49 +6557,54 @@
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="36"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="J7:M17"/>
+    <mergeCell ref="B39:E40"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B41:E42"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="B5:D6"/>
@@ -6042,11 +6612,6 @@
     <mergeCell ref="B19:E20"/>
     <mergeCell ref="B35:E36"/>
     <mergeCell ref="B37:E38"/>
-    <mergeCell ref="J5:M6"/>
-    <mergeCell ref="J7:M17"/>
-    <mergeCell ref="B39:E40"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6070,7 +6635,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="10"/>
@@ -6079,11 +6644,11 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -6094,7 +6659,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="10"/>
@@ -6106,54 +6671,54 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
@@ -6162,7 +6727,7 @@
     </row>
     <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="10"/>
@@ -6170,9 +6735,9 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
@@ -6243,7 +6808,7 @@
     </row>
     <row r="28" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="10"/>
@@ -6257,46 +6822,46 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6327,7 +6892,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="10"/>
@@ -6338,13 +6903,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -6357,7 +6922,7 @@
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="10"/>
@@ -6372,7 +6937,7 @@
     </row>
     <row r="19" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="10"/>
@@ -6384,7 +6949,7 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="10"/>
@@ -6403,7 +6968,7 @@
     </row>
     <row r="50" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="10"/>
@@ -6422,16 +6987,16 @@
     </row>
     <row r="80" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
     </row>
     <row r="82" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="18"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="37" t="s">
@@ -6502,7 +7067,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="10"/>
@@ -6513,13 +7078,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
@@ -6570,7 +7135,7 @@
       <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -6579,7 +7144,7 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
@@ -6589,7 +7154,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="15"/>
+      <c r="R7" s="23"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="11"/>
@@ -6600,196 +7165,196 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="18"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="18"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="18"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="18"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="26"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="18"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="18"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="18"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
@@ -6841,7 +7406,7 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="15"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
@@ -6850,7 +7415,7 @@
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
@@ -6861,132 +7426,132 @@
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="18"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="18"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="18"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="18"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="12"/>
@@ -7030,7 +7595,7 @@
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
@@ -7039,7 +7604,7 @@
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
-      <c r="J35" s="15"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="11"/>
@@ -7050,132 +7615,132 @@
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="18"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="18"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="26"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="18"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="26"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="18"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="18"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="26"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="18"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="18"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="26"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="18"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
     </row>
     <row r="44" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="12"/>
@@ -7195,6 +7760,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="J35:M44"/>
+    <mergeCell ref="N35:P44"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B21:E30"/>
+    <mergeCell ref="F21:H30"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="B35:E44"/>
+    <mergeCell ref="F35:H44"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="V7:X16"/>
     <mergeCell ref="J19:M20"/>
@@ -7208,15 +7782,6 @@
     <mergeCell ref="N7:P16"/>
     <mergeCell ref="R5:U6"/>
     <mergeCell ref="R7:U16"/>
-    <mergeCell ref="J33:M34"/>
-    <mergeCell ref="J35:M44"/>
-    <mergeCell ref="N35:P44"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="B21:E30"/>
-    <mergeCell ref="F21:H30"/>
-    <mergeCell ref="B33:E34"/>
-    <mergeCell ref="B35:E44"/>
-    <mergeCell ref="F35:H44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7229,14 +7794,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="10"/>
@@ -7247,13 +7812,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
